--- a/tests/Test_plates/Test_2/Test_plate_6_repeat_1.xlsx
+++ b/tests/Test_plates/Test_2/Test_plate_6_repeat_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/Test_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/array_sensing/tests/Test_plates/Test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4575E7-7A1C-944E-ACDE-1202E87669B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB725EE-84DF-774B-A260-68A6186EF99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="1860" windowWidth="26040" windowHeight="13740" xr2:uid="{A57ED5CA-178C-274D-9302-EC541B909FEF}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>User: USER</t>
   </si>
@@ -218,9 +220,6 @@
   </si>
   <si>
     <t>Grey Asda</t>
-  </si>
-  <si>
-    <t>Median min fluor readings</t>
   </si>
   <si>
     <t>Median max fluor (blank) readings</t>
@@ -296,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,17 +337,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -357,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,16 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F83D9-DB82-C747-8614-DE60D98C1FE0}">
   <dimension ref="A3:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:Q65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1133,7 @@
         <v>2115</v>
       </c>
       <c r="M19" s="3">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="N19" s="20">
         <v>1622</v>
@@ -1183,8 +1162,9 @@
       <c r="V19" s="3">
         <v>2088</v>
       </c>
-      <c r="W19" s="3">
-        <v>169</v>
+      <c r="W19" s="3" t="e">
+        <f xml:space="preserve"> NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="X19" s="24">
         <v>3425</v>
@@ -1749,8 +1729,9 @@
       <c r="D27" s="3">
         <v>4247</v>
       </c>
-      <c r="E27" s="3">
-        <v>169</v>
+      <c r="E27" s="3" t="e">
+        <f xml:space="preserve"> NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F27" s="16">
         <v>1252</v>
@@ -1803,8 +1784,9 @@
       <c r="V27" s="3">
         <v>2737</v>
       </c>
-      <c r="W27" s="3">
-        <v>169</v>
+      <c r="W27" s="3" t="e">
+        <f xml:space="preserve"> NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="X27" s="20">
         <v>1646</v>
@@ -2124,252 +2106,20 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D49" t="s">
         <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f xml:space="preserve"> MEDIAN(N20, P20, L28, T28, X28)</f>
-        <v>157</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="30">
-        <f xml:space="preserve"> MEDIAN(B28, F28, H20, R20)</f>
-        <v>178.5</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
-        <f xml:space="preserve"> MEDIAN(B20, D20, F20, H28, J28)</f>
-        <v>166</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f xml:space="preserve"> MEDIAN(J20, P28, R28, T20, X20)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>49</v>
@@ -2412,9 +2162,17 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D50">
+      <c r="B50">
+        <f xml:space="preserve"> MEDIAN(D28, V28)</f>
+        <v>124</v>
+      </c>
+      <c r="C50">
         <f xml:space="preserve"> MEDIAN(D29, L21, V21, V29)</f>
         <v>13568.5</v>
+      </c>
+      <c r="D50">
+        <f xml:space="preserve"> MEDIAN(D30, L22, V22, V30)</f>
+        <v>141</v>
       </c>
       <c r="E50">
         <f xml:space="preserve"> MEDIAN(D31, L23, V23, V31)</f>
@@ -2465,13 +2223,13 @@
         <v>11439</v>
       </c>
       <c r="Q50">
-        <f xml:space="preserve"> MEDIAN(E27, M19, W19, W27)</f>
-        <v>169</v>
+        <f xml:space="preserve"> MEDIAN(M19)</f>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="32" t="s">
-        <v>64</v>
+      <c r="B53" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -2519,67 +2277,67 @@
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="e">
-        <f xml:space="preserve"> (L29 - $B$37) / (D50 - $B$37)</f>
+        <f xml:space="preserve"> (L29 - B50) / (C50 - B50)</f>
         <v>#N/A</v>
       </c>
       <c r="E55">
-        <f xml:space="preserve"> (L31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.80797101449275366</v>
+        <f xml:space="preserve"> (L31 - B50) / (E50 - B50)</f>
+        <v>0.82847896440129454</v>
       </c>
       <c r="F55">
-        <f xml:space="preserve"> (L24 - $B$37) / (F50 - $B$37)</f>
-        <v>0.99963550209586294</v>
+        <f xml:space="preserve"> (L24 - B50) / (F50 - B50)</f>
+        <v>0.99963659489415824</v>
       </c>
       <c r="G55">
-        <f xml:space="preserve"> (L25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75484634286927765</v>
+        <f xml:space="preserve"> (L25 - B50) / (G50 - B50)</f>
+        <v>0.75533621968573073</v>
       </c>
       <c r="H55">
-        <f xml:space="preserve"> (L26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.78029225397646451</v>
+        <f xml:space="preserve"> (L26 - B50) / (H50 - B50)</f>
+        <v>0.78091553836234684</v>
       </c>
       <c r="I55">
-        <f xml:space="preserve"> (L27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.64786249449096522</v>
+        <f xml:space="preserve"> (L27 - B50) / (I50 - B50)</f>
+        <v>0.65291051259774113</v>
       </c>
       <c r="J55">
-        <f xml:space="preserve"> (M28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.51867771978303145</v>
+        <f xml:space="preserve"> (M28 - B50) / (J50 - B50)</f>
+        <v>0.52190708549354481</v>
       </c>
       <c r="K55">
-        <f xml:space="preserve"> (M29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.60077686663789387</v>
+        <f xml:space="preserve"> (M29 - B50) / (K50 - B50)</f>
+        <v>0.61183382291229538</v>
       </c>
       <c r="L55">
-        <f xml:space="preserve"> (M30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.42278481012658226</v>
+        <f xml:space="preserve"> (M30 - B50) / (L50 - B50)</f>
+        <v>0.43459392436453814</v>
       </c>
       <c r="M55">
-        <f xml:space="preserve"> (M31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.54989112335083901</v>
+        <f xml:space="preserve"> (M31 - B50) / (M50 - B50)</f>
+        <v>0.55178571428571432</v>
       </c>
       <c r="N55">
-        <f xml:space="preserve"> (M24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.3057730832270989</v>
+        <f xml:space="preserve"> (M24 - B50) / (N50 - B50)</f>
+        <v>0.3099203475742216</v>
       </c>
       <c r="O55">
-        <f xml:space="preserve"> (M25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.2689712160859386</v>
+        <f xml:space="preserve"> (M25 - B50) / (O50 - B50)</f>
+        <v>0.27227858513846998</v>
       </c>
       <c r="P55">
-        <f xml:space="preserve"> (M26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.3830881049459316</v>
+        <f xml:space="preserve"> (M26 - B50) / (P50 - B50)</f>
+        <v>0.38488731771984092</v>
       </c>
       <c r="Q55">
-        <f xml:space="preserve"> (M27 - $B$37) / (Q50 - $B$37)</f>
-        <v>6.25</v>
+        <f xml:space="preserve"> (M27 - B50) / (Q50 - B50)</f>
+        <v>0.58064516129032262</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -2587,60 +2345,60 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <f xml:space="preserve"> (N21 - $B$37) / (D50 - $B$37)</f>
-        <v>0.87723222607463747</v>
+        <f xml:space="preserve"> (N21 - B50) / (C50 - B50)</f>
+        <v>0.87753356391089288</v>
       </c>
       <c r="E56">
-        <f xml:space="preserve"> (N23 - $B$37) / (E50 - $B$37)</f>
-        <v>0.86956521739130432</v>
+        <f xml:space="preserve"> (N23 - B50) / (E50 - B50)</f>
+        <v>0.88349514563106801</v>
       </c>
       <c r="F56">
-        <f xml:space="preserve"> (N16 - $B$37) / (F50 - $B$37)</f>
-        <v>1.0063787133223985</v>
+        <f xml:space="preserve"> (N16 - B50) / (F50 - B50)</f>
+        <v>1.0063595893522304</v>
       </c>
       <c r="G56">
-        <f xml:space="preserve"> (N17 - $B$37) / (G50 - $B$37)</f>
-        <v>0.76121712222795257</v>
+        <f xml:space="preserve"> (N17 - B50) / (G50 - B50)</f>
+        <v>0.7616942686729844</v>
       </c>
       <c r="H56">
-        <f xml:space="preserve"> (N18 - $B$37) / (H50 - $B$37)</f>
-        <v>0.75236001551791021</v>
+        <f xml:space="preserve"> (N18 - B50) / (H50 - B50)</f>
+        <v>0.75306254029658282</v>
       </c>
       <c r="I56">
-        <f xml:space="preserve"> (N19 - $B$37) / (I50 - $B$37)</f>
-        <v>0.64565888056412513</v>
+        <f xml:space="preserve"> (N19 - B50) / (I50 - B50)</f>
+        <v>0.65073848827106862</v>
       </c>
       <c r="J56">
-        <f xml:space="preserve"> (O20 - $B$37) / (J50 - $B$37)</f>
-        <v>0.55265581823764198</v>
+        <f xml:space="preserve"> (O20 - B50) / (J50 - B50)</f>
+        <v>0.55565721256480638</v>
       </c>
       <c r="K56">
-        <f xml:space="preserve"> (O21 - $B$37) / (K50 - $B$37)</f>
-        <v>0.5213638325420803</v>
+        <f xml:space="preserve"> (O21 - B50) / (K50 - B50)</f>
+        <v>0.53462022660511954</v>
       </c>
       <c r="L56">
-        <f xml:space="preserve"> (O22 - $B$37) / (L50 - $B$37)</f>
-        <v>0.41392405063291138</v>
+        <f xml:space="preserve"> (O22 - B50) / (L50 - B50)</f>
+        <v>0.42591444513329202</v>
       </c>
       <c r="M56">
-        <f xml:space="preserve"> (O23 - $B$37) / (M50 - $B$37)</f>
-        <v>0.58319456897655952</v>
+        <f xml:space="preserve"> (O23 - B50) / (M50 - B50)</f>
+        <v>0.58494897959183678</v>
       </c>
       <c r="N56">
-        <f xml:space="preserve"> (O16 - $B$37) / (N50 - $B$37)</f>
-        <v>0.34765980695683846</v>
+        <f xml:space="preserve"> (O16 - B50) / (N50 - B50)</f>
+        <v>0.35155684286748734</v>
       </c>
       <c r="O56">
-        <f xml:space="preserve"> (O17 - $B$37) / (O50 - $B$37)</f>
-        <v>0.28343203415507506</v>
+        <f xml:space="preserve"> (O17 - B50) / (O50 - B50)</f>
+        <v>0.28667397861255828</v>
       </c>
       <c r="P56">
-        <f xml:space="preserve"> (O18 - $B$37) / (P50 - $B$37)</f>
-        <v>0.35596525438751997</v>
+        <f xml:space="preserve"> (O18 - B50) / (P50 - B50)</f>
+        <v>0.35784357048166149</v>
       </c>
       <c r="Q56">
-        <f xml:space="preserve"> (O19 - $B$37) / (Q50 - $B$37)</f>
-        <v>6.083333333333333</v>
+        <f xml:space="preserve"> (O19 - B50) / (Q50 - B50)</f>
+        <v>0.56989247311827962</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -2648,60 +2406,60 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <f xml:space="preserve"> (P21 - $B$37) / (D50 - $B$37)</f>
-        <v>0.83808671662379297</v>
+        <f xml:space="preserve"> (P21 - B50) / (C50 - B50)</f>
+        <v>0.83848413849529546</v>
       </c>
       <c r="E57">
-        <f xml:space="preserve"> (P23 - $B$37) / (E50 - $B$37)</f>
-        <v>0.84782608695652173</v>
+        <f xml:space="preserve"> (P23 - B50) / (E50 - B50)</f>
+        <v>0.86407766990291257</v>
       </c>
       <c r="F57">
-        <f xml:space="preserve"> (P16 - $B$37) / (F50 - $B$37)</f>
-        <v>1.0237834882449426</v>
+        <f xml:space="preserve"> (P16 - B50) / (F50 - B50)</f>
+        <v>1.0237121831561733</v>
       </c>
       <c r="G57">
-        <f xml:space="preserve"> (P17 - $B$37) / (G50 - $B$37)</f>
-        <v>0.76710250887358555</v>
+        <f xml:space="preserve"> (P17 - B50) / (G50 - B50)</f>
+        <v>0.76756789488025678</v>
       </c>
       <c r="H57">
-        <f xml:space="preserve"> (P18 - $B$37) / (H50 - $B$37)</f>
-        <v>0.74882538040432778</v>
+        <f xml:space="preserve"> (P18 - B50) / (H50 - B50)</f>
+        <v>0.7495379325166559</v>
       </c>
       <c r="I57">
-        <f xml:space="preserve"> (P19 - $B$37) / (I50 - $B$37)</f>
-        <v>0.66549140590568534</v>
+        <f xml:space="preserve"> (P19 - B50) / (I50 - B50)</f>
+        <v>0.67028670721112071</v>
       </c>
       <c r="J57">
-        <f xml:space="preserve"> (Q20 - $B$37) / (J50 - $B$37)</f>
-        <v>0.53239177156892847</v>
+        <f xml:space="preserve"> (Q20 - B50) / (J50 - B50)</f>
+        <v>0.5355291247331504</v>
       </c>
       <c r="K57">
-        <f xml:space="preserve"> (Q21 - $B$37) / (K50 - $B$37)</f>
-        <v>0.11652999568407424</v>
+        <f xml:space="preserve"> (Q21 - B50) / (K50 - B50)</f>
+        <v>0.14099874108266891</v>
       </c>
       <c r="L57">
-        <f xml:space="preserve"> (Q22 - $B$37) / (L50 - $B$37)</f>
-        <v>0.43670886075949367</v>
+        <f xml:space="preserve"> (Q22 - B50) / (L50 - B50)</f>
+        <v>0.44823310601363919</v>
       </c>
       <c r="M57">
-        <f xml:space="preserve"> (Q23 - $B$37) / (M50 - $B$37)</f>
-        <v>0.58575637248623036</v>
+        <f xml:space="preserve"> (Q23 - B50) / (M50 - B50)</f>
+        <v>0.58750000000000002</v>
       </c>
       <c r="N57">
-        <f xml:space="preserve"> (Q16 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32926607175377892</v>
+        <f xml:space="preserve"> (Q16 - B50) / (N50 - B50)</f>
+        <v>0.33327299058653148</v>
       </c>
       <c r="O57">
-        <f xml:space="preserve"> (Q17 - $B$37) / (O50 - $B$37)</f>
-        <v>0.30863517421842723</v>
+        <f xml:space="preserve"> (Q17 - B50) / (O50 - B50)</f>
+        <v>0.31176309295311216</v>
       </c>
       <c r="P57">
-        <f xml:space="preserve"> (Q18 - $B$37) / (P50 - $B$37)</f>
-        <v>0.37138805176387163</v>
+        <f xml:space="preserve"> (Q18 - B50) / (P50 - B50)</f>
+        <v>0.37322138753866546</v>
       </c>
       <c r="Q57">
-        <f xml:space="preserve"> (Q19 - $B$37) / (Q50 - $B$37)</f>
-        <v>5.583333333333333</v>
+        <f xml:space="preserve"> (Q19 - B50) / (Q50 - B50)</f>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
@@ -2709,60 +2467,60 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <f xml:space="preserve"> (T29 - $B$37) / (D50 - $B$37)</f>
-        <v>0.84874920776945162</v>
+        <f xml:space="preserve"> (T29 - B50) / (C50 - B50)</f>
+        <v>0.84912045817992488</v>
       </c>
       <c r="E58">
-        <f xml:space="preserve"> (T31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.75724637681159424</v>
+        <f xml:space="preserve"> (T31 - B50) / (E50 - B50)</f>
+        <v>0.78317152103559873</v>
       </c>
       <c r="F58">
-        <f xml:space="preserve"> (T24 - $B$37) / (F50 - $B$37)</f>
-        <v>1.0531255695279753</v>
+        <f xml:space="preserve"> (T24 - B50) / (F50 - B50)</f>
+        <v>1.0529662941764333</v>
       </c>
       <c r="G58">
-        <f xml:space="preserve"> (T25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75721263234535696</v>
+        <f xml:space="preserve"> (T25 - B50) / (G50 - B50)</f>
+        <v>0.7576977807381392</v>
       </c>
       <c r="H58">
-        <f xml:space="preserve"> (T26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.75037717142980298</v>
+        <f xml:space="preserve"> (T26 - B50) / (H50 - B50)</f>
+        <v>0.75108532129808725</v>
       </c>
       <c r="I58">
-        <f xml:space="preserve"> (T27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.65888056412516527</v>
+        <f xml:space="preserve"> (T27 - B50) / (I50 - B50)</f>
+        <v>0.66377063423110338</v>
       </c>
       <c r="J58">
-        <f xml:space="preserve"> (U28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.56207143588169073</v>
+        <f xml:space="preserve"> (U28 - B50) / (J50 - B50)</f>
+        <v>0.56500965741587883</v>
       </c>
       <c r="K58">
-        <f xml:space="preserve"> (U29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.63012516184721623</v>
+        <f xml:space="preserve"> (U29 - B50) / (K50 - B50)</f>
+        <v>0.64036928241712132</v>
       </c>
       <c r="L58">
-        <f xml:space="preserve"> (U30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.38607594936708861</v>
+        <f xml:space="preserve"> (U30 - B50) / (L50 - B50)</f>
+        <v>0.39863608183508992</v>
       </c>
       <c r="M58">
-        <f xml:space="preserve"> (U31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.53721019597796849</v>
+        <f xml:space="preserve"> (U31 - B50) / (M50 - B50)</f>
+        <v>0.53915816326530608</v>
       </c>
       <c r="N58">
-        <f xml:space="preserve"> (U24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32762702604261518</v>
+        <f xml:space="preserve"> (U24 - B50) / (N50 - B50)</f>
+        <v>0.33164373642288197</v>
       </c>
       <c r="O58">
-        <f xml:space="preserve"> (U25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.31028783914061425</v>
+        <f xml:space="preserve"> (U25 - B50) / (O50 - B50)</f>
+        <v>0.31340828077872224</v>
       </c>
       <c r="P58">
-        <f xml:space="preserve"> (U26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.35800390001772736</v>
+        <f xml:space="preserve"> (U26 - B50) / (P50 - B50)</f>
+        <v>0.35987627043747239</v>
       </c>
       <c r="Q58">
-        <f xml:space="preserve"> (U27 - $B$37) / (Q50 - $B$37)</f>
-        <v>6.166666666666667</v>
+        <f xml:space="preserve"> (U27 - B50) / (Q50 - B50)</f>
+        <v>0.57526881720430112</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
@@ -2770,124 +2528,124 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <f xml:space="preserve"> (X29 - $B$37) / (D50 - $B$37)</f>
-        <v>0.86328896842262237</v>
+        <f xml:space="preserve"> (X29 - B50) / (C50 - B50)</f>
+        <v>0.86362453047714682</v>
       </c>
       <c r="E59">
-        <f xml:space="preserve"> (X31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.83695652173913049</v>
+        <f xml:space="preserve"> (X31 - B50) / (E50 - B50)</f>
+        <v>0.85436893203883491</v>
       </c>
       <c r="F59">
-        <f xml:space="preserve"> (X24 - $B$37) / (F50 - $B$37)</f>
-        <v>1.0509385821031529</v>
+        <f xml:space="preserve"> (X24 - B50) / (F50 - B50)</f>
+        <v>1.0507858635413827</v>
       </c>
       <c r="G59">
-        <f xml:space="preserve"> (X25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75775869914752902</v>
+        <f xml:space="preserve"> (X25 - B50) / (G50 - B50)</f>
+        <v>0.75824275636561811</v>
       </c>
       <c r="H59">
-        <f xml:space="preserve"> (X26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.78322341480236213</v>
+        <f xml:space="preserve"> (X26 - B50) / (H50 - B50)</f>
+        <v>0.78383838383838389</v>
       </c>
       <c r="I59">
-        <f xml:space="preserve"> (X27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.65623622741295728</v>
+        <f xml:space="preserve"> (X27 - B50) / (I50 - B50)</f>
+        <v>0.66116420503909645</v>
       </c>
       <c r="J59">
-        <f xml:space="preserve"> (Y28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.55736362705966636</v>
+        <f xml:space="preserve"> (Y28 - B50) / (J50 - B50)</f>
+        <v>0.5603334349903426</v>
       </c>
       <c r="K59">
-        <f xml:space="preserve"> (Y29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.63012516184721623</v>
+        <f xml:space="preserve"> (Y29 - B50) / (K50 - B50)</f>
+        <v>0.64036928241712132</v>
       </c>
       <c r="L59">
-        <f xml:space="preserve"> (Y30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.38670886075949368</v>
+        <f xml:space="preserve"> (Y30 - B50) / (L50 - B50)</f>
+        <v>0.39925604463732178</v>
       </c>
       <c r="M59">
-        <f xml:space="preserve"> (Y31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.5858844626617139</v>
+        <f xml:space="preserve"> (Y31 - B50) / (M50 - B50)</f>
+        <v>0.5876275510204082</v>
       </c>
       <c r="N59">
-        <f xml:space="preserve"> (Y24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32489528319067568</v>
+        <f xml:space="preserve"> (Y24 - B50) / (N50 - B50)</f>
+        <v>0.32892831281679941</v>
       </c>
       <c r="O59">
-        <f xml:space="preserve"> (Y25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.31290455860074368</v>
+        <f xml:space="preserve"> (Y25 - B50) / (O50 - B50)</f>
+        <v>0.31601316150260489</v>
       </c>
       <c r="P59">
-        <f xml:space="preserve"> (Y26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.37191987236305618</v>
+        <f xml:space="preserve"> (Y26 - B50) / (P50 - B50)</f>
+        <v>0.3737516570923553</v>
       </c>
       <c r="Q59">
-        <f xml:space="preserve"> (Y27 - $B$37) / (Q50 - $B$37)</f>
-        <v>5.5</v>
+        <f xml:space="preserve"> (Y27 - B50) / (Q50 - B50)</f>
+        <v>0.532258064516129</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <f xml:space="preserve"> (B29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.49854368932038834</v>
+        <f xml:space="preserve"> (B29 - B50) / (C50 - B50)</f>
+        <v>0.50057644389899214</v>
       </c>
       <c r="E61">
-        <f xml:space="preserve"> (B31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.41453831041257366</v>
+        <f xml:space="preserve"> (B31 - B50) / (E50 - B50)</f>
+        <v>0.51779935275080902</v>
       </c>
       <c r="F61">
-        <f xml:space="preserve"> (B24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.54430495320703032</v>
+        <f xml:space="preserve"> (B24 - B50) / (F50 - B50)</f>
+        <v>0.54656127918597253</v>
       </c>
       <c r="G61">
-        <f xml:space="preserve"> (B25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.4061057108140948</v>
+        <f xml:space="preserve"> (B25 - B50) / (G50 - B50)</f>
+        <v>0.40806563928668743</v>
       </c>
       <c r="H61">
-        <f xml:space="preserve"> (B26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.5097167040939713</v>
+        <f xml:space="preserve"> (B26 - B50) / (H50 - B50)</f>
+        <v>0.51201375456694609</v>
       </c>
       <c r="I61">
-        <f xml:space="preserve"> (B27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.50166852057842048</v>
+        <f xml:space="preserve"> (B27 - B50) / (I50 - B50)</f>
+        <v>0.51346655082536929</v>
       </c>
       <c r="J61">
-        <f xml:space="preserve"> (C28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.45446134868421051</v>
+        <f xml:space="preserve"> (C28 - B50) / (J50 - B50)</f>
+        <v>0.46050625190606892</v>
       </c>
       <c r="K61">
-        <f xml:space="preserve"> (C29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.36191732629727352</v>
+        <f xml:space="preserve"> (C29 - B50) / (K50 - B50)</f>
+        <v>0.39110365086026017</v>
       </c>
       <c r="L61">
-        <f xml:space="preserve"> (C30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16137311517484762</v>
+        <f xml:space="preserve"> (C30 - B50) / (L50 - B50)</f>
+        <v>0.18970861748295104</v>
       </c>
       <c r="M61">
-        <f xml:space="preserve"> (C31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.15997688009761737</v>
+        <f xml:space="preserve"> (C31 - B50) / (M50 - B50)</f>
+        <v>0.16581632653061223</v>
       </c>
       <c r="N61">
-        <f xml:space="preserve"> (C24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23173964713410733</v>
+        <f xml:space="preserve"> (C24 - B50) / (N50 - B50)</f>
+        <v>0.23931933381607531</v>
       </c>
       <c r="O61">
-        <f xml:space="preserve"> (C25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.4070032460805304</v>
+        <f xml:space="preserve"> (C25 - B50) / (O50 - B50)</f>
+        <v>0.41143405538799011</v>
       </c>
       <c r="P61">
-        <f xml:space="preserve"> (C26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.19603925225345234</v>
-      </c>
-      <c r="Q61" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (C26 - B50) / (P50 - B50)</f>
+        <v>0.1999116217410517</v>
+      </c>
+      <c r="Q61">
+        <f xml:space="preserve"> (C27 - B50) / (Q50 - B50)</f>
+        <v>0.31720430107526881</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
@@ -2895,60 +2653,60 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <f xml:space="preserve"> (F29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.48293502613890965</v>
+        <f xml:space="preserve"> (F29 - B50) / (C50 - B50)</f>
+        <v>0.48503105359068766</v>
       </c>
       <c r="E62">
-        <f xml:space="preserve"> (F31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.38310412573673869</v>
+        <f xml:space="preserve"> (F31 - B50) / (E50 - B50)</f>
+        <v>0.49190938511326859</v>
       </c>
       <c r="F62">
-        <f xml:space="preserve"> (F24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.56722209541200641</v>
+        <f xml:space="preserve"> (F24 - B50) / (F50 - B50)</f>
+        <v>0.56936494957754158</v>
       </c>
       <c r="G62">
-        <f xml:space="preserve"> (F25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.4166160388821385</v>
+        <f xml:space="preserve"> (F25 - B50) / (G50 - B50)</f>
+        <v>0.41854128190378154</v>
       </c>
       <c r="H62">
-        <f xml:space="preserve"> (F26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.56205735014683023</v>
+        <f xml:space="preserve"> (F26 - B50) / (H50 - B50)</f>
+        <v>0.56410917687513429</v>
       </c>
       <c r="I62">
-        <f xml:space="preserve"> (F27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.47764182424916574</v>
+        <f xml:space="preserve"> (F27 - B50) / (I50 - B50)</f>
+        <v>0.49000868809730669</v>
       </c>
       <c r="J62">
-        <f xml:space="preserve"> (G28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.50524259868421051</v>
+        <f xml:space="preserve"> (G28 - B50) / (J50 - B50)</f>
+        <v>0.51072481447595808</v>
       </c>
       <c r="K62">
-        <f xml:space="preserve"> (G29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.35488126649076518</v>
+        <f xml:space="preserve"> (G29 - B50) / (K50 - B50)</f>
+        <v>0.38438942509441881</v>
       </c>
       <c r="L62">
-        <f xml:space="preserve"> (G30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16008982996470966</v>
+        <f xml:space="preserve"> (G30 - B50) / (L50 - B50)</f>
+        <v>0.1884686918784873</v>
       </c>
       <c r="M62">
-        <f xml:space="preserve"> (G31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.18746387515252713</v>
+        <f xml:space="preserve"> (G31 - B50) / (M50 - B50)</f>
+        <v>0.1931122448979592</v>
       </c>
       <c r="N62">
-        <f xml:space="preserve"> (G24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23704177712770819</v>
+        <f xml:space="preserve"> (G24 - B50) / (N50 - B50)</f>
+        <v>0.24456915278783489</v>
       </c>
       <c r="O62">
-        <f xml:space="preserve"> (G25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.3893224670212031</v>
+        <f xml:space="preserve"> (G25 - B50) / (O50 - B50)</f>
+        <v>0.39388538524814914</v>
       </c>
       <c r="P62">
-        <f xml:space="preserve"> (G26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.18751387593801341</v>
-      </c>
-      <c r="Q62" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (G26 - B50) / (P50 - B50)</f>
+        <v>0.19142730888201503</v>
+      </c>
+      <c r="Q62">
+        <f xml:space="preserve"> (G27 - B50) / (Q50 - B50)</f>
+        <v>0.35483870967741937</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
@@ -2956,60 +2714,60 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <f xml:space="preserve"> (H21 - $B$40) / (D50 - $B$40)</f>
-        <v>0.5703136669156087</v>
+        <f xml:space="preserve"> (H21 - B50) / (C50 - B50)</f>
+        <v>0.57205548737401912</v>
       </c>
       <c r="E63">
-        <f xml:space="preserve"> (H23 - $B$40) / (E50 - $B$40)</f>
-        <v>0.44204322200392926</v>
+        <f xml:space="preserve"> (H23 - B50) / (E50 - B50)</f>
+        <v>0.54045307443365698</v>
       </c>
       <c r="F63">
-        <f xml:space="preserve"> (H16 - $B$40) / (F50 - $B$40)</f>
-        <v>0.56941337594156582</v>
+        <f xml:space="preserve"> (H16 - B50) / (F50 - B50)</f>
+        <v>0.57154538021259194</v>
       </c>
       <c r="G63">
-        <f xml:space="preserve"> (H17 - $B$40) / (G50 - $B$40)</f>
-        <v>0.42900972053462938</v>
+        <f xml:space="preserve"> (H17 - B50) / (G50 - B50)</f>
+        <v>0.43089406279330283</v>
       </c>
       <c r="H63">
-        <f xml:space="preserve"> (H18 - $B$40) / (H50 - $B$40)</f>
-        <v>0.50453446191051998</v>
+        <f xml:space="preserve"> (H18 - B50) / (H50 - B50)</f>
+        <v>0.5068557919621749</v>
       </c>
       <c r="I63">
-        <f xml:space="preserve"> (H19 - $B$40) / (I50 - $B$40)</f>
-        <v>0.52969966629588427</v>
+        <f xml:space="preserve"> (H19 - B50) / (I50 - B50)</f>
+        <v>0.54083405734144219</v>
       </c>
       <c r="J63">
-        <f xml:space="preserve"> (I20 - $B$40) / (J50 - $B$40)</f>
-        <v>0.45960115131578949</v>
+        <f xml:space="preserve"> (I20 - B50) / (J50 - B50)</f>
+        <v>0.46558910236860834</v>
       </c>
       <c r="K63">
-        <f xml:space="preserve"> (I21 - $B$40) / (K50 - $B$40)</f>
-        <v>0.38390501319261211</v>
+        <f xml:space="preserve"> (I21 - B50) / (K50 - B50)</f>
+        <v>0.41208560637851449</v>
       </c>
       <c r="L63">
-        <f xml:space="preserve"> (I22 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16201475777991659</v>
+        <f xml:space="preserve"> (I22 - B50) / (L50 - B50)</f>
+        <v>0.1903285802851829</v>
       </c>
       <c r="M63">
-        <f xml:space="preserve"> (I23 - $B$40) / (M50 - $B$40)</f>
-        <v>0.19504206537794619</v>
+        <f xml:space="preserve"> (I23 - B50) / (M50 - B50)</f>
+        <v>0.20063775510204082</v>
       </c>
       <c r="N63">
-        <f xml:space="preserve"> (I16 - $B$40) / (N50 - $B$40)</f>
-        <v>0.25916445744583599</v>
+        <f xml:space="preserve"> (I16 - B50) / (N50 - B50)</f>
+        <v>0.2664735698769008</v>
       </c>
       <c r="O63">
-        <f xml:space="preserve"> (I17 - $B$40) / (O50 - $B$40)</f>
-        <v>0.42275018993024382</v>
+        <f xml:space="preserve"> (I17 - B50) / (O50 - B50)</f>
+        <v>0.42706333973128596</v>
       </c>
       <c r="P63">
-        <f xml:space="preserve"> (I18 - $B$40) / (P50 - $B$40)</f>
-        <v>0.19186537009901869</v>
-      </c>
-      <c r="Q63" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (I18 - B50) / (P50 - B50)</f>
+        <v>0.19575784357048165</v>
+      </c>
+      <c r="Q63">
+        <f xml:space="preserve"> (I19 - B50) / (Q50 - B50)</f>
+        <v>0.34946236559139787</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -3017,60 +2775,60 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <f xml:space="preserve"> (N29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.52274085138162807</v>
+        <f xml:space="preserve"> (N29 - B50) / (C50 - B50)</f>
+        <v>0.52467551786976085</v>
       </c>
       <c r="E64">
-        <f xml:space="preserve"> (N31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.34381139489194501</v>
+        <f xml:space="preserve"> (N31 - B50) / (E50 - B50)</f>
+        <v>0.45954692556634302</v>
       </c>
       <c r="F64">
-        <f xml:space="preserve"> (N24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.5510614015065054</v>
+        <f xml:space="preserve"> (N24 - B50) / (F50 - B50)</f>
+        <v>0.55328427364404464</v>
       </c>
       <c r="G64">
-        <f xml:space="preserve"> (N25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.40039489671931955</v>
+        <f xml:space="preserve"> (N25 - B50) / (G50 - B50)</f>
+        <v>0.40237367162190801</v>
       </c>
       <c r="H64">
-        <f xml:space="preserve"> (N26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.5260407669718431</v>
+        <f xml:space="preserve"> (N26 - B50) / (H50 - B50)</f>
+        <v>0.52826133677197507</v>
       </c>
       <c r="I64">
-        <f xml:space="preserve"> (N27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.45850945494994438</v>
+        <f xml:space="preserve"> (N27 - B50) / (I50 - B50)</f>
+        <v>0.47132927888792353</v>
       </c>
       <c r="J64">
-        <f xml:space="preserve"> (O28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.505859375</v>
+        <f xml:space="preserve"> (O28 - B50) / (J50 - B50)</f>
+        <v>0.51133475653146288</v>
       </c>
       <c r="K64">
-        <f xml:space="preserve"> (O29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.36543535620052769</v>
+        <f xml:space="preserve"> (O29 - B50) / (K50 - B50)</f>
+        <v>0.39446076374318084</v>
       </c>
       <c r="L64">
-        <f xml:space="preserve"> (O30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16008982996470966</v>
+        <f xml:space="preserve"> (O30 - B50) / (L50 - B50)</f>
+        <v>0.1884686918784873</v>
       </c>
       <c r="M64">
-        <f xml:space="preserve"> (O31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.15188491426369533</v>
+        <f xml:space="preserve"> (O31 - B50) / (M50 - B50)</f>
+        <v>0.15778061224489795</v>
       </c>
       <c r="N64">
-        <f xml:space="preserve"> (O24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.21382210439711125</v>
+        <f xml:space="preserve"> (O24 - B50) / (N50 - B50)</f>
+        <v>0.22157856625633598</v>
       </c>
       <c r="O64">
-        <f xml:space="preserve"> (O25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.37689066924511361</v>
+        <f xml:space="preserve"> (O25 - B50) / (O50 - B50)</f>
+        <v>0.38154647655607349</v>
       </c>
       <c r="P64">
-        <f xml:space="preserve"> (O26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.1806758136850051</v>
-      </c>
-      <c r="Q64" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (O26 - B50) / (P50 - B50)</f>
+        <v>0.18462218294299601</v>
+      </c>
+      <c r="Q64">
+        <f xml:space="preserve"> (O27 - B50) / (Q50 - B50)</f>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -3078,60 +2836,60 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <f xml:space="preserve"> (R21 - $B$40) / (D50 - $B$40)</f>
-        <v>0.54133681852128457</v>
+        <f xml:space="preserve"> (R21 - B50) / (C50 - B50)</f>
+        <v>0.54319610249544426</v>
       </c>
       <c r="E65">
-        <f xml:space="preserve"> (R23 - $B$40) / (E50 - $B$40)</f>
-        <v>0.48133595284872299</v>
+        <f xml:space="preserve"> (R23 - B50) / (E50 - B50)</f>
+        <v>0.57281553398058249</v>
       </c>
       <c r="F65">
-        <f xml:space="preserve"> (R16 - $B$40) / (F50 - $B$40)</f>
-        <v>0.54220497603286921</v>
+        <f xml:space="preserve"> (R16 - B50) / (F50 - B50)</f>
+        <v>0.54447169982738253</v>
       </c>
       <c r="G65">
-        <f xml:space="preserve"> (R17 - $B$40) / (G50 - $B$40)</f>
-        <v>0.41187727825030379</v>
+        <f xml:space="preserve"> (R17 - B50) / (G50 - B50)</f>
+        <v>0.41381815979896452</v>
       </c>
       <c r="H65">
-        <f xml:space="preserve"> (R18 - $B$40) / (H50 - $B$40)</f>
-        <v>0.48665572637761273</v>
+        <f xml:space="preserve"> (R18 - B50) / (H50 - B50)</f>
+        <v>0.48906082097571457</v>
       </c>
       <c r="I65">
-        <f xml:space="preserve"> (R19 - $B$40) / (I50 - $B$40)</f>
-        <v>0.52747497219132367</v>
+        <f xml:space="preserve"> (R19 - B50) / (I50 - B50)</f>
+        <v>0.53866203301476978</v>
       </c>
       <c r="J65">
-        <f xml:space="preserve"> (S20 - $B$40) / (J50 - $B$40)</f>
-        <v>0.53361430921052633</v>
+        <f xml:space="preserve"> (S20 - B50) / (J50 - B50)</f>
+        <v>0.53878214902917554</v>
       </c>
       <c r="K65">
-        <f xml:space="preserve"> (S21 - $B$40) / (K50 - $B$40)</f>
-        <v>0.41908531222515394</v>
+        <f xml:space="preserve"> (S21 - B50) / (K50 - B50)</f>
+        <v>0.44565673520772137</v>
       </c>
       <c r="L65">
-        <f xml:space="preserve"> (S22 - $B$40) / (L50 - $B$40)</f>
-        <v>0.16650625601539942</v>
+        <f xml:space="preserve"> (S22 - B50) / (L50 - B50)</f>
+        <v>0.19466831990080596</v>
       </c>
       <c r="M65">
-        <f xml:space="preserve"> (S23 - $B$40) / (M50 - $B$40)</f>
-        <v>0.16241731423800654</v>
+        <f xml:space="preserve"> (S23 - B50) / (M50 - B50)</f>
+        <v>0.16823979591836735</v>
       </c>
       <c r="N65">
-        <f xml:space="preserve"> (S16 - $B$40) / (N50 - $B$40)</f>
-        <v>0.27397385501416949</v>
+        <f xml:space="preserve"> (S16 - B50) / (N50 - B50)</f>
+        <v>0.28113685734974658</v>
       </c>
       <c r="O65">
-        <f xml:space="preserve"> (S17 - $B$40) / (O50 - $B$40)</f>
-        <v>0.41653429104219902</v>
+        <f xml:space="preserve"> (S17 - B50) / (O50 - B50)</f>
+        <v>0.42089388538524813</v>
       </c>
       <c r="P65">
-        <f xml:space="preserve"> (S18 - $B$40) / (P50 - $B$40)</f>
-        <v>0.21015940677589806</v>
-      </c>
-      <c r="Q65" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (S18 - B50) / (P50 - B50)</f>
+        <v>0.21396376491383121</v>
+      </c>
+      <c r="Q65">
+        <f xml:space="preserve"> (S19 - B50) / (Q50 - B50)</f>
+        <v>0.37634408602150538</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
@@ -3142,60 +2900,60 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <f xml:space="preserve"> (B21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.56899832120872973</v>
+        <f xml:space="preserve"> (B21 - B50) / (C50 - B50)</f>
+        <v>0.57034475064152623</v>
       </c>
       <c r="E67">
-        <f xml:space="preserve"> (B23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.76029962546816476</v>
+        <f xml:space="preserve"> (B23 - B50) / (E50 - B50)</f>
+        <v>0.79288025889967639</v>
       </c>
       <c r="F67">
-        <f xml:space="preserve"> (B16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.75795713634290929</v>
+        <f xml:space="preserve"> (B16 - B50) / (F50 - B50)</f>
+        <v>0.75888071227400744</v>
       </c>
       <c r="G67">
-        <f xml:space="preserve"> (B17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.99189558354833818</v>
+        <f xml:space="preserve"> (B17 - B50) / (G50 - B50)</f>
+        <v>0.99191619485906324</v>
       </c>
       <c r="H67">
-        <f xml:space="preserve"> (B18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.91367930632845862</v>
+        <f xml:space="preserve"> (B18 - B50) / (H50 - B50)</f>
+        <v>0.91399097356544168</v>
       </c>
       <c r="I67">
-        <f xml:space="preserve"> (B19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8584070796460177</v>
+        <f xml:space="preserve"> (B19 - B50) / (I50 - B50)</f>
+        <v>0.86099044309296269</v>
       </c>
       <c r="J67">
-        <f xml:space="preserve"> (C20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.68102122423869582</v>
+        <f xml:space="preserve"> (C20 - B50) / (J50 - B50)</f>
+        <v>0.68374504422079907</v>
       </c>
       <c r="K67">
-        <f xml:space="preserve"> (C21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58895171813832103</v>
+        <f xml:space="preserve"> (C21 - B50) / (K50 - B50)</f>
+        <v>0.60344104070499371</v>
       </c>
       <c r="L67">
-        <f xml:space="preserve"> (C22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.30617441120305539</v>
+        <f xml:space="preserve"> (C22 - B50) / (L50 - B50)</f>
+        <v>0.32424054556726595</v>
       </c>
       <c r="M67">
-        <f xml:space="preserve"> (C23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.6451654270325724</v>
+        <f xml:space="preserve"> (C23 - B50) / (M50 - B50)</f>
+        <v>0.64706632653061225</v>
       </c>
       <c r="N67">
-        <f xml:space="preserve"> (C16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34439985406785845</v>
+        <f xml:space="preserve"> (C16 - B50) / (N50 - B50)</f>
+        <v>0.34938450398262128</v>
       </c>
       <c r="O67">
-        <f xml:space="preserve"> (C17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30005515719801434</v>
+        <f xml:space="preserve"> (C17 - B50) / (O50 - B50)</f>
+        <v>0.30408554976693175</v>
       </c>
       <c r="P67">
-        <f xml:space="preserve"> (C18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.41390934090304266</v>
+        <f xml:space="preserve"> (C18 - B50) / (P50 - B50)</f>
+        <v>0.41608484312859034</v>
       </c>
       <c r="Q67">
-        <f xml:space="preserve"> (C19 - $B$43) / (Q50 - $B$43)</f>
-        <v>39.666666666666664</v>
+        <f xml:space="preserve"> (C19 - B50) / (Q50 - B50)</f>
+        <v>0.86559139784946237</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
@@ -3203,60 +2961,60 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <f xml:space="preserve"> (D21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.4841634023503078</v>
+        <f xml:space="preserve"> (D21 - B50) / (C50 - B50)</f>
+        <v>0.48577485217003236</v>
       </c>
       <c r="E68">
-        <f xml:space="preserve"> (D23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.67041198501872656</v>
+        <f xml:space="preserve"> (D23 - B50) / (E50 - B50)</f>
+        <v>0.71521035598705507</v>
       </c>
       <c r="F68">
-        <f xml:space="preserve"> (D16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.75184678522571824</v>
+        <f xml:space="preserve"> (D16 - B50) / (F50 - B50)</f>
+        <v>0.75279367675115838</v>
       </c>
       <c r="G68">
-        <f xml:space="preserve"> (D17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.98163606010016691</v>
+        <f xml:space="preserve"> (D17 - B50) / (G50 - B50)</f>
+        <v>0.98168276363195983</v>
       </c>
       <c r="H68">
-        <f xml:space="preserve"> (D18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.89452568914196973</v>
+        <f xml:space="preserve"> (D18 - B50) / (H50 - B50)</f>
+        <v>0.89490651192778847</v>
       </c>
       <c r="I68">
-        <f xml:space="preserve"> (D19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.89424778761061952</v>
+        <f xml:space="preserve"> (D19 - B50) / (I50 - B50)</f>
+        <v>0.89617723718505649</v>
       </c>
       <c r="J68">
-        <f xml:space="preserve"> (E20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.70214293038039577</v>
+        <f xml:space="preserve"> (E20 - B50) / (J50 - B50)</f>
+        <v>0.70468638812646134</v>
       </c>
       <c r="K68">
-        <f xml:space="preserve"> (E21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58808177468464551</v>
+        <f xml:space="preserve"> (E21 - B50) / (K50 - B50)</f>
+        <v>0.60260176248426356</v>
       </c>
       <c r="L68">
-        <f xml:space="preserve"> (E22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.33163590070019094</v>
+        <f xml:space="preserve"> (E22 - B50) / (L50 - B50)</f>
+        <v>0.34903905765654059</v>
       </c>
       <c r="M68">
-        <f xml:space="preserve"> (E23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.67158245704026676</v>
+        <f xml:space="preserve"> (E23 - B50) / (M50 - B50)</f>
+        <v>0.67334183673469383</v>
       </c>
       <c r="N68">
-        <f xml:space="preserve"> (E16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34330536300620212</v>
+        <f xml:space="preserve"> (E16 - B50) / (N50 - B50)</f>
+        <v>0.34829833454018827</v>
       </c>
       <c r="O68">
-        <f xml:space="preserve"> (E17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.26930501930501932</v>
+        <f xml:space="preserve"> (E17 - B50) / (O50 - B50)</f>
+        <v>0.27351247600767753</v>
       </c>
       <c r="P68">
-        <f xml:space="preserve"> (E18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.39634524971170054</v>
+        <f xml:space="preserve"> (E18 - B50) / (P50 - B50)</f>
+        <v>0.39858594785682722</v>
       </c>
       <c r="Q68">
-        <f xml:space="preserve"> (E19 - $B$43) / (Q50 - $B$43)</f>
-        <v>42.333333333333336</v>
+        <f xml:space="preserve"> (E19 - B50) / (Q50 - B50)</f>
+        <v>0.90860215053763438</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
@@ -3264,60 +3022,60 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <f xml:space="preserve"> (F21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.53325872038798727</v>
+        <f xml:space="preserve"> (F21 - B50) / (C50 - B50)</f>
+        <v>0.53471679869091449</v>
       </c>
       <c r="E69">
-        <f xml:space="preserve"> (F23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.76779026217228463</v>
+        <f xml:space="preserve"> (F23 - B50) / (E50 - B50)</f>
+        <v>0.79935275080906154</v>
       </c>
       <c r="F69">
-        <f xml:space="preserve"> (F16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.7077063383492932</v>
+        <f xml:space="preserve"> (F16 - B50) / (F50 - B50)</f>
+        <v>0.70882165894430815</v>
       </c>
       <c r="G69">
-        <f xml:space="preserve"> (F17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.98206101077553498</v>
+        <f xml:space="preserve"> (F17 - B50) / (G50 - B50)</f>
+        <v>0.98210663356444339</v>
       </c>
       <c r="H69">
-        <f xml:space="preserve"> (F18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.90082395064923859</v>
+        <f xml:space="preserve"> (F18 - B50) / (H50 - B50)</f>
+        <v>0.90118203309692668</v>
       </c>
       <c r="I69">
-        <f xml:space="preserve"> (F19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8252212389380531</v>
+        <f xml:space="preserve"> (F19 - B50) / (I50 - B50)</f>
+        <v>0.82841007819287571</v>
       </c>
       <c r="J69">
-        <f xml:space="preserve"> (G20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.65600328104173078</v>
+        <f xml:space="preserve"> (G20 - B50) / (J50 - B50)</f>
+        <v>0.65894073396360675</v>
       </c>
       <c r="K69">
-        <f xml:space="preserve"> (G21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.52457590256633324</v>
+        <f xml:space="preserve"> (G21 - B50) / (K50 - B50)</f>
+        <v>0.54133445237096101</v>
       </c>
       <c r="L69">
-        <f xml:space="preserve"> (G22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.29535327816677276</v>
+        <f xml:space="preserve"> (G22 - B50) / (L50 - B50)</f>
+        <v>0.31370117792932423</v>
       </c>
       <c r="M69">
-        <f xml:space="preserve"> (G23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.57796870992562199</v>
+        <f xml:space="preserve"> (G23 - B50) / (M50 - B50)</f>
+        <v>0.58022959183673473</v>
       </c>
       <c r="N69">
-        <f xml:space="preserve"> (G16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34786574242977014</v>
+        <f xml:space="preserve"> (G16 - B50) / (N50 - B50)</f>
+        <v>0.35282404055032585</v>
       </c>
       <c r="O69">
-        <f xml:space="preserve"> (G17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30694980694980695</v>
+        <f xml:space="preserve"> (G17 - B50) / (O50 - B50)</f>
+        <v>0.31094049904030713</v>
       </c>
       <c r="P69">
-        <f xml:space="preserve"> (G18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.44575534462875899</v>
+        <f xml:space="preserve"> (G18 - B50) / (P50 - B50)</f>
+        <v>0.44781263809102961</v>
       </c>
       <c r="Q69">
-        <f xml:space="preserve"> (G19 - $B$43) / (Q50 - $B$43)</f>
-        <v>40.333333333333336</v>
+        <f xml:space="preserve"> (G19 - B50) / (Q50 - B50)</f>
+        <v>0.87634408602150538</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
@@ -3325,60 +3083,60 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <f xml:space="preserve"> (H29 - $B$43) / (D50 - $B$43)</f>
-        <v>0.52296213393023694</v>
+        <f xml:space="preserve"> (H29 - B50) / (C50 - B50)</f>
+        <v>0.52445237829595748</v>
       </c>
       <c r="E70">
-        <f xml:space="preserve"> (H31 - $B$43) / (E50 - $B$43)</f>
-        <v>0.61423220973782766</v>
+        <f xml:space="preserve"> (H31 - B50) / (E50 - B50)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F70">
-        <f xml:space="preserve"> (H24 - $B$43) / (F50 - $B$43)</f>
-        <v>0.72840857273141812</v>
+        <f xml:space="preserve"> (H24 - B50) / (F50 - B50)</f>
+        <v>0.72944489870082674</v>
       </c>
       <c r="G70">
-        <f xml:space="preserve"> (H25 - $B$43) / (G50 - $B$43)</f>
-        <v>0.9735012900288359</v>
+        <f xml:space="preserve"> (H25 - B50) / (G50 - B50)</f>
+        <v>0.9735686820672742</v>
       </c>
       <c r="H70">
-        <f xml:space="preserve"> (H26 - $B$43) / (H50 - $B$43)</f>
-        <v>0.89107458694620589</v>
+        <f xml:space="preserve"> (H26 - B50) / (H50 - B50)</f>
+        <v>0.89146787019127449</v>
       </c>
       <c r="I70">
-        <f xml:space="preserve"> (H27 - $B$43) / (I50 - $B$43)</f>
-        <v>0.84159292035398225</v>
+        <f xml:space="preserve"> (H27 - B50) / (I50 - B50)</f>
+        <v>0.84448305821025194</v>
       </c>
       <c r="J70">
-        <f xml:space="preserve"> (I28 - $B$43) / (J50 - $B$43)</f>
-        <v>0.73638880344509383</v>
+        <f xml:space="preserve"> (I28 - B50) / (J50 - B50)</f>
+        <v>0.73863982921622451</v>
       </c>
       <c r="K70">
-        <f xml:space="preserve"> (I29 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58460200086994341</v>
+        <f xml:space="preserve"> (I29 - B50) / (K50 - B50)</f>
+        <v>0.59924464960134283</v>
       </c>
       <c r="L70">
-        <f xml:space="preserve"> (I30 - $B$43) / (L50 - $B$43)</f>
-        <v>0.27816677275620622</v>
+        <f xml:space="preserve"> (I30 - B50) / (L50 - B50)</f>
+        <v>0.29696218226906385</v>
       </c>
       <c r="M70">
-        <f xml:space="preserve"> (I31 - $B$43) / (M50 - $B$43)</f>
-        <v>0.55668120030777124</v>
+        <f xml:space="preserve"> (I31 - B50) / (M50 - B50)</f>
+        <v>0.55905612244897962</v>
       </c>
       <c r="N70">
-        <f xml:space="preserve"> (I24 - $B$43) / (N50 - $B$43)</f>
-        <v>0.32725282743524259</v>
+        <f xml:space="preserve"> (I24 - B50) / (N50 - B50)</f>
+        <v>0.33236784938450398</v>
       </c>
       <c r="O70">
-        <f xml:space="preserve"> (I25 - $B$43) / (O50 - $B$43)</f>
-        <v>0.26682294539437396</v>
+        <f xml:space="preserve"> (I25 - B50) / (O50 - B50)</f>
+        <v>0.27104469426926242</v>
       </c>
       <c r="P70">
-        <f xml:space="preserve"> (I26 - $B$43) / (P50 - $B$43)</f>
-        <v>0.39714361749312516</v>
+        <f xml:space="preserve"> (I26 - B50) / (P50 - B50)</f>
+        <v>0.39938135218736193</v>
       </c>
       <c r="Q70">
-        <f xml:space="preserve"> (I27 - $B$43) / (Q50 - $B$43)</f>
-        <v>40.333333333333336</v>
+        <f xml:space="preserve"> (I27 - B50) / (Q50 - B50)</f>
+        <v>0.87634408602150538</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
@@ -3386,60 +3144,60 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <f xml:space="preserve"> (J29 - $B$43) / (D50 - $B$43)</f>
-        <v>0.54251072561089353</v>
+        <f xml:space="preserve"> (J29 - B50) / (C50 - B50)</f>
+        <v>0.54393990107478896</v>
       </c>
       <c r="E71">
-        <f xml:space="preserve"> (J31 - $B$43) / (E50 - $B$43)</f>
-        <v>0.8089887640449438</v>
+        <f xml:space="preserve"> (J31 - B50) / (E50 - B50)</f>
+        <v>0.83495145631067957</v>
       </c>
       <c r="F71">
-        <f xml:space="preserve"> (J24 - $B$43) / (F50 - $B$43)</f>
-        <v>0.70506155950752392</v>
+        <f xml:space="preserve"> (J24 - B50) / (F50 - B50)</f>
+        <v>0.70618697192695556</v>
       </c>
       <c r="G71">
-        <f xml:space="preserve"> (J25 - $B$43) / (G50 - $B$43)</f>
-        <v>0.9840643496736986</v>
+        <f xml:space="preserve"> (J25 - B50) / (G50 - B50)</f>
+        <v>0.98410487753186593</v>
       </c>
       <c r="H71">
-        <f xml:space="preserve"> (J26 - $B$43) / (H50 - $B$43)</f>
-        <v>0.9053966610586256</v>
+        <f xml:space="preserve"> (J26 - B50) / (H50 - B50)</f>
+        <v>0.9057382333978079</v>
       </c>
       <c r="I71">
-        <f xml:space="preserve"> (J27 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8283185840707965</v>
+        <f xml:space="preserve"> (J27 - B50) / (I50 - B50)</f>
+        <v>0.83145091225021717</v>
       </c>
       <c r="J71">
-        <f xml:space="preserve"> (K28 - $B$43) / (J50 - $B$43)</f>
-        <v>0.75730544447862191</v>
+        <f xml:space="preserve"> (K28 - B50) / (J50 - B50)</f>
+        <v>0.75937785910338518</v>
       </c>
       <c r="K71">
-        <f xml:space="preserve"> (K29 - $B$43) / (K50 - $B$43)</f>
-        <v>0.5915615484993475</v>
+        <f xml:space="preserve"> (K29 - B50) / (K50 - B50)</f>
+        <v>0.60595887536718418</v>
       </c>
       <c r="L71">
-        <f xml:space="preserve"> (K30 - $B$43) / (L50 - $B$43)</f>
-        <v>0.23997453851050288</v>
+        <f xml:space="preserve"> (K30 - B50) / (L50 - B50)</f>
+        <v>0.25976441413515189</v>
       </c>
       <c r="M71">
-        <f xml:space="preserve"> (K31 - $B$43) / (M50 - $B$43)</f>
-        <v>0.59245960502692996</v>
+        <f xml:space="preserve"> (K31 - B50) / (M50 - B50)</f>
+        <v>0.59464285714285714</v>
       </c>
       <c r="N71">
-        <f xml:space="preserve"> (K24 - $B$43) / (N50 - $B$43)</f>
-        <v>0.35224370667639548</v>
+        <f xml:space="preserve"> (K24 - B50) / (N50 - B50)</f>
+        <v>0.35716871832005792</v>
       </c>
       <c r="O71">
-        <f xml:space="preserve"> (K25 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30060672917815773</v>
+        <f xml:space="preserve"> (K25 - B50) / (O50 - B50)</f>
+        <v>0.30463394570880176</v>
       </c>
       <c r="P71">
-        <f xml:space="preserve"> (K26 - $B$43) / (P50 - $B$43)</f>
-        <v>0.41053845471480527</v>
+        <f xml:space="preserve"> (K26 - B50) / (P50 - B50)</f>
+        <v>0.412726469288555</v>
       </c>
       <c r="Q71">
-        <f xml:space="preserve"> (K27 - $B$43) / (Q50 - $B$43)</f>
-        <v>39</v>
+        <f xml:space="preserve"> (K27 - B50) / (Q50 - B50)</f>
+        <v>0.85483870967741937</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
@@ -3450,60 +3208,60 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <f xml:space="preserve"> (J21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.97839471622075447</v>
+        <f>(J21 - B50) / (C50 - B50)</f>
+        <v>0.97846703112797051</v>
       </c>
       <c r="E73">
-        <f xml:space="preserve"> (J23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5795454545454546</v>
+        <f xml:space="preserve"> (J23 - B50) / (E50 - B50)</f>
+        <v>1.4951456310679612</v>
       </c>
       <c r="F73">
-        <f xml:space="preserve"> (J16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.5970625798212006</v>
+        <f xml:space="preserve"> (J16 - B50) / (F50 - B50)</f>
+        <v>1.5946216044335424</v>
       </c>
       <c r="G73">
-        <f xml:space="preserve"> (J17 - $B$46) / (G50 - $B$46)</f>
-        <v>1.0098667233370777</v>
+        <f xml:space="preserve"> (J17 - B50) / (G50 - B50)</f>
+        <v>1.0098398377183686</v>
       </c>
       <c r="H73">
-        <f xml:space="preserve"> (J18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.182740021574973</v>
+        <f xml:space="preserve"> (J18 - B50) / (H50 - B50)</f>
+        <v>1.1820330969267139</v>
       </c>
       <c r="I73">
-        <f xml:space="preserve"> (J19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.181214000886132</v>
+        <f xml:space="preserve"> (J19 - B50) / (I50 - B50)</f>
+        <v>1.1776715899218071</v>
       </c>
       <c r="J73">
-        <f xml:space="preserve"> (K20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.1059813275879757</v>
+        <f xml:space="preserve"> (K20 - B50) / (J50 - B50)</f>
+        <v>1.1050116905560639</v>
       </c>
       <c r="K73">
-        <f xml:space="preserve"> (K21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.89315307457479287</v>
+        <f xml:space="preserve"> (K21 - B50) / (K50 - B50)</f>
+        <v>0.89718841796055393</v>
       </c>
       <c r="L73">
-        <f xml:space="preserve"> (K22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.51147959183673475</v>
+        <f xml:space="preserve"> (K22 - B50) / (L50 - B50)</f>
+        <v>0.52510849349039057</v>
       </c>
       <c r="M73">
-        <f xml:space="preserve"> (K23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.81616420782552923</v>
+        <f xml:space="preserve"> (K23 - B50) / (M50 - B50)</f>
+        <v>0.81721938775510206</v>
       </c>
       <c r="N73">
-        <f xml:space="preserve"> (K16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.89249863113706884</v>
+        <f xml:space="preserve"> (K16 - B50) / (N50 - B50)</f>
+        <v>0.89337436640115853</v>
       </c>
       <c r="O73">
-        <f xml:space="preserve"> (K17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.3383915022761761</v>
+        <f xml:space="preserve"> (K17 - B50) / (O50 - B50)</f>
+        <v>1.336303811351796</v>
       </c>
       <c r="P73">
-        <f xml:space="preserve"> (K18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.78864241348713393</v>
-      </c>
-      <c r="Q73" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (K18 - B50) / (P50 - B50)</f>
+        <v>0.78948298718515242</v>
+      </c>
+      <c r="Q73">
+        <f xml:space="preserve"> (K19 - B50) / (Q50 - B50)</f>
+        <v>1.6505376344086022</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
@@ -3511,60 +3269,60 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <f xml:space="preserve"> (P29 - $B$46) / (D50 - $B$46)</f>
-        <v>0.99354453524385233</v>
+        <f xml:space="preserve"> (P29 - B50) / (C50 - B50)</f>
+        <v>0.99356614228866824</v>
       </c>
       <c r="E74">
-        <f xml:space="preserve"> (P31 - $B$46) / (E50 - $B$46)</f>
-        <v>1.4621212121212122</v>
+        <f xml:space="preserve"> (P31 - B50) / (E50 - B50)</f>
+        <v>1.3948220064724919</v>
       </c>
       <c r="F74">
-        <f xml:space="preserve"> (P24 - $B$46) / (F50 - $B$46)</f>
-        <v>1.6275314723590586</v>
+        <f xml:space="preserve"> (P24 - B50) / (F50 - B50)</f>
+        <v>1.6249659307713273</v>
       </c>
       <c r="G74">
-        <f xml:space="preserve"> (P25 - $B$46) / (G50 - $B$46)</f>
-        <v>0.98855460092898995</v>
+        <f xml:space="preserve"> (P25 - B50) / (G50 - B50)</f>
+        <v>0.9885857882466923</v>
       </c>
       <c r="H74">
-        <f xml:space="preserve"> (P26 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1492556634304207</v>
+        <f xml:space="preserve"> (P26 - B50) / (H50 - B50)</f>
+        <v>1.1486782720825275</v>
       </c>
       <c r="I74">
-        <f xml:space="preserve"> (P27 - $B$46) / (I50 - $B$46)</f>
-        <v>1.2370403190075321</v>
+        <f xml:space="preserve"> (P27 - B50) / (I50 - B50)</f>
+        <v>1.2324066029539531</v>
       </c>
       <c r="J74">
-        <f xml:space="preserve"> (Q28 - $B$46) / (J50 - $B$46)</f>
-        <v>1.167743921206525</v>
+        <f xml:space="preserve"> (Q28 - B50) / (J50 - B50)</f>
+        <v>1.1662092101250381</v>
       </c>
       <c r="K74">
-        <f xml:space="preserve"> (Q29 - $B$46) / (K50 - $B$46)</f>
-        <v>0.85651984300043615</v>
+        <f xml:space="preserve"> (Q29 - B50) / (K50 - B50)</f>
+        <v>0.86193873268988674</v>
       </c>
       <c r="L74">
-        <f xml:space="preserve"> (Q30 - $B$46) / (L50 - $B$46)</f>
-        <v>0.38520408163265307</v>
+        <f xml:space="preserve"> (Q30 - B50) / (L50 - B50)</f>
+        <v>0.40235585864848111</v>
       </c>
       <c r="M74">
-        <f xml:space="preserve"> (Q31 - $B$46) / (M50 - $B$46)</f>
-        <v>0.74932649134060292</v>
+        <f xml:space="preserve"> (Q31 - B50) / (M50 - B50)</f>
+        <v>0.75076530612244896</v>
       </c>
       <c r="N74">
-        <f xml:space="preserve"> (Q24 - $B$46) / (N50 - $B$46)</f>
-        <v>0.807811644460668</v>
+        <f xml:space="preserve"> (Q24 - B50) / (N50 - B50)</f>
+        <v>0.80937726285300504</v>
       </c>
       <c r="O74">
-        <f xml:space="preserve"> (Q25 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2022347910056559</v>
+        <f xml:space="preserve"> (Q25 - B50) / (O50 - B50)</f>
+        <v>1.200987112695366</v>
       </c>
       <c r="P74">
-        <f xml:space="preserve"> (Q26 - $B$46) / (P50 - $B$46)</f>
-        <v>0.78731144631765748</v>
-      </c>
-      <c r="Q74" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (Q26 - B50) / (P50 - B50)</f>
+        <v>0.78815731330092798</v>
+      </c>
+      <c r="Q74">
+        <f xml:space="preserve"> (Q27 - B50) / (Q50 - B50)</f>
+        <v>1.6935483870967742</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
@@ -3572,60 +3330,60 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <f xml:space="preserve"> (R29 - $B$46) / (D50 - $B$46)</f>
-        <v>0.94906526362923993</v>
+        <f xml:space="preserve"> (R29 - B50) / (C50 - B50)</f>
+        <v>0.94923574695972335</v>
       </c>
       <c r="E75">
-        <f xml:space="preserve"> (R31 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5568181818181819</v>
+        <f xml:space="preserve"> (R31 - B50) / (E50 - B50)</f>
+        <v>1.4757281553398058</v>
       </c>
       <c r="F75">
-        <f xml:space="preserve"> (R24 - $B$46) / (F50 - $B$46)</f>
-        <v>1.6110198868819559</v>
+        <f xml:space="preserve"> (R24 - B50) / (F50 - B50)</f>
+        <v>1.6085218497319886</v>
       </c>
       <c r="G75">
-        <f xml:space="preserve"> (R25 - $B$46) / (G50 - $B$46)</f>
-        <v>0.9843650384043231</v>
+        <f xml:space="preserve"> (R25 - B50) / (G50 - B50)</f>
+        <v>0.98440764176935425</v>
       </c>
       <c r="H75">
-        <f xml:space="preserve"> (R26 - $B$46) / (H50 - $B$46)</f>
-        <v>1.2050053937432579</v>
+        <f xml:space="preserve"> (R26 - B50) / (H50 - B50)</f>
+        <v>1.2042123361272297</v>
       </c>
       <c r="I75">
-        <f xml:space="preserve"> (R27 - $B$46) / (I50 - $B$46)</f>
-        <v>1.1936198493575543</v>
+        <f xml:space="preserve"> (R27 - B50) / (I50 - B50)</f>
+        <v>1.1898349261511729</v>
       </c>
       <c r="J75">
-        <f xml:space="preserve"> (S28 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0561198317431004</v>
+        <f xml:space="preserve"> (S28 - B50) / (J50 - B50)</f>
+        <v>1.055606384060181</v>
       </c>
       <c r="K75">
-        <f xml:space="preserve"> (S29 - $B$46) / (K50 - $B$46)</f>
-        <v>0.90623637156563452</v>
+        <f xml:space="preserve"> (S29 - B50) / (K50 - B50)</f>
+        <v>0.90977759127150648</v>
       </c>
       <c r="L75">
-        <f xml:space="preserve"> (S30 - $B$46) / (L50 - $B$46)</f>
-        <v>0.56441326530612246</v>
+        <f xml:space="preserve"> (S30 - B50) / (L50 - B50)</f>
+        <v>0.57656540607563544</v>
       </c>
       <c r="M75">
-        <f xml:space="preserve"> (S31 - $B$46) / (M50 - $B$46)</f>
-        <v>0.79037844772289934</v>
+        <f xml:space="preserve"> (S31 - B50) / (M50 - B50)</f>
+        <v>0.79158163265306125</v>
       </c>
       <c r="N75">
-        <f xml:space="preserve"> (S24 - $B$46) / (N50 - $B$46)</f>
-        <v>0.85289286366125205</v>
+        <f xml:space="preserve"> (S24 - B50) / (N50 - B50)</f>
+        <v>0.85409123823316435</v>
       </c>
       <c r="O75">
-        <f xml:space="preserve"> (S25 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2536901641605738</v>
+        <f xml:space="preserve"> (S25 - B50) / (O50 - B50)</f>
+        <v>1.2521250342747463</v>
       </c>
       <c r="P75">
-        <f xml:space="preserve"> (S26 - $B$46) / (P50 - $B$46)</f>
-        <v>0.81153504880212957</v>
-      </c>
-      <c r="Q75" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (S26 - B50) / (P50 - B50)</f>
+        <v>0.81228457799381348</v>
+      </c>
+      <c r="Q75">
+        <f xml:space="preserve"> (S27 - B50) / (Q50 - B50)</f>
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
@@ -3633,60 +3391,60 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <f xml:space="preserve"> (T21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.95406545020336575</v>
+        <f xml:space="preserve"> (T21 - B50) / (C50 - B50)</f>
+        <v>0.95421919744133288</v>
       </c>
       <c r="E76">
-        <f xml:space="preserve"> (T23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.3674242424242424</v>
+        <f xml:space="preserve"> (T23 - B50) / (E50 - B50)</f>
+        <v>1.3139158576051779</v>
       </c>
       <c r="F76">
-        <f xml:space="preserve"> (T16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.5174238277686554</v>
+        <f xml:space="preserve"> (T16 - B50) / (F50 - B50)</f>
+        <v>1.5153084400835832</v>
       </c>
       <c r="G76">
-        <f xml:space="preserve"> (T17 - $B$46) / (G50 - $B$46)</f>
-        <v>0.92977928898873674</v>
+        <f xml:space="preserve"> (T17 - B50) / (G50 - B50)</f>
+        <v>0.92997063186896367</v>
       </c>
       <c r="H76">
-        <f xml:space="preserve"> (T18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1664293419633225</v>
+        <f xml:space="preserve"> (T18 - B50) / (H50 - B50)</f>
+        <v>1.1657855147216849</v>
       </c>
       <c r="I76">
-        <f xml:space="preserve"> (T19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.2268498006202924</v>
+        <f xml:space="preserve"> (T19 - B50) / (I50 - B50)</f>
+        <v>1.2224152910512598</v>
       </c>
       <c r="J76">
-        <f xml:space="preserve"> (U20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0823843233815533</v>
+        <f xml:space="preserve"> (U20 - B50) / (J50 - B50)</f>
+        <v>1.0816305784283826</v>
       </c>
       <c r="K76">
-        <f xml:space="preserve"> (U21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.88355865678150891</v>
+        <f xml:space="preserve"> (U21 - B50) / (K50 - B50)</f>
+        <v>0.887956357532522</v>
       </c>
       <c r="L76">
-        <f xml:space="preserve"> (U22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.5133928571428571</v>
+        <f xml:space="preserve"> (U22 - B50) / (L50 - B50)</f>
+        <v>0.52696838189708617</v>
       </c>
       <c r="M76">
-        <f xml:space="preserve"> (U23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.78011545862732523</v>
+        <f xml:space="preserve"> (U23 - B50) / (M50 - B50)</f>
+        <v>0.78137755102040818</v>
       </c>
       <c r="N76">
-        <f xml:space="preserve"> (U16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.7983208614710714</v>
+        <f xml:space="preserve"> (U16 - B50) / (N50 - B50)</f>
+        <v>0.79996379435191889</v>
       </c>
       <c r="O76">
-        <f xml:space="preserve"> (U17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2447234101255344</v>
+        <f xml:space="preserve"> (U17 - B50) / (O50 - B50)</f>
+        <v>1.2432136002193583</v>
       </c>
       <c r="P76">
-        <f xml:space="preserve"> (U18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.73549245785270634</v>
-      </c>
-      <c r="Q76" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (U18 - B50) / (P50 - B50)</f>
+        <v>0.7365444100751215</v>
+      </c>
+      <c r="Q76">
+        <f xml:space="preserve"> (U19 - B50) / (Q50 - B50)</f>
+        <v>1.4946236559139785</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
@@ -3694,60 +3452,60 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <f xml:space="preserve"> (X21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.93316914810254115</v>
+        <f xml:space="preserve"> (X21 - B50) / (C50 - B50)</f>
+        <v>0.93339283721968092</v>
       </c>
       <c r="E77">
-        <f xml:space="preserve"> (X23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5303030303030303</v>
+        <f xml:space="preserve"> (X23 - B50) / (E50 - B50)</f>
+        <v>1.4530744336569579</v>
       </c>
       <c r="F77">
-        <f xml:space="preserve"> (X16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.6601897463966429</v>
+        <f xml:space="preserve"> (X16 - B50) / (F50 - B50)</f>
+        <v>1.6574906877441629</v>
       </c>
       <c r="G77">
-        <f xml:space="preserve"> (X17 - $B$46) / (G50 - $B$46)</f>
-        <v>0.97598591335498952</v>
+        <f xml:space="preserve"> (X17 - B50) / (G50 - B50)</f>
+        <v>0.97605134881467803</v>
       </c>
       <c r="H77">
-        <f xml:space="preserve"> (X18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1997411003236247</v>
+        <f xml:space="preserve"> (X18 - B50) / (H50 - B50)</f>
+        <v>1.1989684074790459</v>
       </c>
       <c r="I77">
-        <f xml:space="preserve"> (X19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.4426229508196722</v>
+        <f xml:space="preserve"> (X19 - B50) / (I50 - B50)</f>
+        <v>1.4339704604691572</v>
       </c>
       <c r="J77">
-        <f xml:space="preserve"> (Y20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.1640504770698676</v>
+        <f xml:space="preserve"> (Y20 - B50) / (J50 - B50)</f>
+        <v>1.1625495577920097</v>
       </c>
       <c r="K77">
-        <f xml:space="preserve"> (Y21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.94286960313999124</v>
+        <f xml:space="preserve"> (Y21 - B50) / (K50 - B50)</f>
+        <v>0.94502727654217378</v>
       </c>
       <c r="L77">
-        <f xml:space="preserve"> (Y22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.51211734693877553</v>
+        <f xml:space="preserve"> (Y22 - B50) / (L50 - B50)</f>
+        <v>0.52572845629262244</v>
       </c>
       <c r="M77">
-        <f xml:space="preserve"> (Y23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.7958948043617704</v>
+        <f xml:space="preserve"> (Y23 - B50) / (M50 - B50)</f>
+        <v>0.79706632653061227</v>
       </c>
       <c r="N77">
-        <f xml:space="preserve"> (Y16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.81967512319766378</v>
+        <f xml:space="preserve"> (Y16 - B50) / (N50 - B50)</f>
+        <v>0.82114409847936276</v>
       </c>
       <c r="O77">
-        <f xml:space="preserve"> (Y17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2506552627948682</v>
+        <f xml:space="preserve"> (Y17 - B50) / (O50 - B50)</f>
+        <v>1.2491088565944612</v>
       </c>
       <c r="P77">
-        <f xml:space="preserve"> (Y18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.76539485359361137</v>
-      </c>
-      <c r="Q77" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f xml:space="preserve"> (Y18 - B50) / (P50 - B50)</f>
+        <v>0.76632788334069823</v>
+      </c>
+      <c r="Q77">
+        <f xml:space="preserve"> (Y19 - B50) / (Q50 - B50)</f>
+        <v>1.3870967741935485</v>
       </c>
     </row>
   </sheetData>
